--- a/Code/Results/Cases/Case_5_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037658900038676</v>
+        <v>1.064198653302102</v>
       </c>
       <c r="D2">
-        <v>1.04801892443902</v>
+        <v>1.06175269416624</v>
       </c>
       <c r="E2">
-        <v>1.046907570061508</v>
+        <v>1.069076882600384</v>
       </c>
       <c r="F2">
-        <v>1.054539685581464</v>
+        <v>1.078871629810596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06538758058678</v>
+        <v>1.055988313694664</v>
       </c>
       <c r="J2">
-        <v>1.058768759433244</v>
+        <v>1.069160123005274</v>
       </c>
       <c r="K2">
-        <v>1.05884748501046</v>
+        <v>1.064475900687661</v>
       </c>
       <c r="L2">
-        <v>1.057749914201819</v>
+        <v>1.071780355622972</v>
       </c>
       <c r="M2">
-        <v>1.06528810009098</v>
+        <v>1.081549165381923</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043770907599696</v>
+        <v>1.065430994089894</v>
       </c>
       <c r="D3">
-        <v>1.052685649086782</v>
+        <v>1.062697770233633</v>
       </c>
       <c r="E3">
-        <v>1.052220140955342</v>
+        <v>1.070189976582276</v>
       </c>
       <c r="F3">
-        <v>1.060290422034581</v>
+        <v>1.080090757819483</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067978373265716</v>
+        <v>1.05642783024316</v>
       </c>
       <c r="J3">
-        <v>1.063135508762619</v>
+        <v>1.070046242116565</v>
       </c>
       <c r="K3">
-        <v>1.062686027414452</v>
+        <v>1.065235330747638</v>
       </c>
       <c r="L3">
-        <v>1.062225765857686</v>
+        <v>1.072708813494198</v>
       </c>
       <c r="M3">
-        <v>1.070205891948583</v>
+        <v>1.082585280450773</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047626458581198</v>
+        <v>1.066227995820213</v>
       </c>
       <c r="D4">
-        <v>1.055631426941658</v>
+        <v>1.063308840469844</v>
       </c>
       <c r="E4">
-        <v>1.055575982534681</v>
+        <v>1.07091003792658</v>
       </c>
       <c r="F4">
-        <v>1.063924405324727</v>
+        <v>1.080879649755082</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069601783870036</v>
+        <v>1.056710730055846</v>
       </c>
       <c r="J4">
-        <v>1.065885640927507</v>
+        <v>1.070618669374011</v>
       </c>
       <c r="K4">
-        <v>1.065101776167554</v>
+        <v>1.065725650571288</v>
       </c>
       <c r="L4">
-        <v>1.065046917381824</v>
+        <v>1.073308810367187</v>
       </c>
       <c r="M4">
-        <v>1.073308000594453</v>
+        <v>1.083255176655955</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049224640165424</v>
+        <v>1.066562960649962</v>
       </c>
       <c r="D5">
-        <v>1.056852891861761</v>
+        <v>1.063565626036134</v>
       </c>
       <c r="E5">
-        <v>1.056968072146977</v>
+        <v>1.071212708961711</v>
       </c>
       <c r="F5">
-        <v>1.065432211960322</v>
+        <v>1.081211309921249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070272053093512</v>
+        <v>1.056829303615877</v>
       </c>
       <c r="J5">
-        <v>1.067024491750057</v>
+        <v>1.070859091538858</v>
       </c>
       <c r="K5">
-        <v>1.066101730283454</v>
+        <v>1.065931523095783</v>
       </c>
       <c r="L5">
-        <v>1.066215727668884</v>
+        <v>1.073560864351585</v>
       </c>
       <c r="M5">
-        <v>1.074593792750915</v>
+        <v>1.083536673403854</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049491681480565</v>
+        <v>1.06661919723251</v>
       </c>
       <c r="D6">
-        <v>1.057057008811416</v>
+        <v>1.063608735139855</v>
       </c>
       <c r="E6">
-        <v>1.057200737269782</v>
+        <v>1.071263526297081</v>
       </c>
       <c r="F6">
-        <v>1.065684237377891</v>
+        <v>1.081266997758558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070383891381665</v>
+        <v>1.056849191696732</v>
       </c>
       <c r="J6">
-        <v>1.067214716156781</v>
+        <v>1.070899446252187</v>
       </c>
       <c r="K6">
-        <v>1.066268729110341</v>
+        <v>1.065966074906923</v>
       </c>
       <c r="L6">
-        <v>1.066410988489588</v>
+        <v>1.073603174535057</v>
       </c>
       <c r="M6">
-        <v>1.074808630782274</v>
+        <v>1.083583930507926</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04764790134103</v>
+        <v>1.066232472005883</v>
       </c>
       <c r="D7">
-        <v>1.055647813817986</v>
+        <v>1.063312272075578</v>
       </c>
       <c r="E7">
-        <v>1.055594656104264</v>
+        <v>1.070914082397872</v>
       </c>
       <c r="F7">
-        <v>1.063944629785292</v>
+        <v>1.080884081373031</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069610787418925</v>
+        <v>1.056712315845361</v>
       </c>
       <c r="J7">
-        <v>1.065900925337964</v>
+        <v>1.070621882793983</v>
       </c>
       <c r="K7">
-        <v>1.065115198159315</v>
+        <v>1.065728402462086</v>
       </c>
       <c r="L7">
-        <v>1.06506260170531</v>
+        <v>1.073312179048835</v>
       </c>
       <c r="M7">
-        <v>1.073325252400734</v>
+        <v>1.083258938528793</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039745725704398</v>
+        <v>1.064615213917316</v>
       </c>
       <c r="D8">
-        <v>1.049611837549157</v>
+        <v>1.062072182364862</v>
       </c>
       <c r="E8">
-        <v>1.048720443034025</v>
+        <v>1.069453097115555</v>
       </c>
       <c r="F8">
-        <v>1.05650179915629</v>
+        <v>1.079283633699152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066274423639649</v>
+        <v>1.056137160777981</v>
       </c>
       <c r="J8">
-        <v>1.060260616641856</v>
+        <v>1.069459788893502</v>
       </c>
       <c r="K8">
-        <v>1.060159241043305</v>
+        <v>1.064732778404907</v>
       </c>
       <c r="L8">
-        <v>1.059278556459988</v>
+        <v>1.072094294141567</v>
       </c>
       <c r="M8">
-        <v>1.066967176330644</v>
+        <v>1.081899437965073</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025007455103812</v>
+        <v>1.06176219230467</v>
       </c>
       <c r="D9">
-        <v>1.038373089218923</v>
+        <v>1.059883435266897</v>
       </c>
       <c r="E9">
-        <v>1.035939144294421</v>
+        <v>1.066877170374092</v>
       </c>
       <c r="F9">
-        <v>1.04267369401727</v>
+        <v>1.076463628233203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059966169677675</v>
+        <v>1.055112163930702</v>
       </c>
       <c r="J9">
-        <v>1.049707022507358</v>
+        <v>1.067404682556591</v>
       </c>
       <c r="K9">
-        <v>1.050872824128076</v>
+        <v>1.062970021233544</v>
       </c>
       <c r="L9">
-        <v>1.048474854217123</v>
+        <v>1.069942206946032</v>
       </c>
       <c r="M9">
-        <v>1.055110384544908</v>
+        <v>1.079499622537262</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01455389380813</v>
+        <v>1.059857875839257</v>
       </c>
       <c r="D10">
-        <v>1.030419614393364</v>
+        <v>1.058421812081614</v>
       </c>
       <c r="E10">
-        <v>1.026905009402843</v>
+        <v>1.065158790685911</v>
       </c>
       <c r="F10">
-        <v>1.032906005229404</v>
+        <v>1.074583640562618</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055436660097857</v>
+        <v>1.054421048199816</v>
       </c>
       <c r="J10">
-        <v>1.042201744439</v>
+        <v>1.066029578861577</v>
       </c>
       <c r="K10">
-        <v>1.044260527913741</v>
+        <v>1.061789167547</v>
       </c>
       <c r="L10">
-        <v>1.040804903111718</v>
+        <v>1.068503344111924</v>
       </c>
       <c r="M10">
-        <v>1.046705505640424</v>
+        <v>1.077896820993715</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009857991866568</v>
+        <v>1.059032706522832</v>
       </c>
       <c r="D11">
-        <v>1.026852309558256</v>
+        <v>1.057788313359613</v>
       </c>
       <c r="E11">
-        <v>1.022855278930815</v>
+        <v>1.064414431103092</v>
       </c>
       <c r="F11">
-        <v>1.028528776448357</v>
+        <v>1.073769563612398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053389558721976</v>
+        <v>1.054119928966758</v>
       </c>
       <c r="J11">
-        <v>1.038826340485895</v>
+        <v>1.065432928899488</v>
       </c>
       <c r="K11">
-        <v>1.041284995864551</v>
+        <v>1.061276479869947</v>
       </c>
       <c r="L11">
-        <v>1.037358676554266</v>
+        <v>1.067879298075046</v>
       </c>
       <c r="M11">
-        <v>1.042932016411418</v>
+        <v>1.077202073679487</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008086319925202</v>
+        <v>1.058726110640814</v>
       </c>
       <c r="D12">
-        <v>1.025507381473338</v>
+        <v>1.057552911116604</v>
       </c>
       <c r="E12">
-        <v>1.021328780451937</v>
+        <v>1.064137897236372</v>
       </c>
       <c r="F12">
-        <v>1.026879015131653</v>
+        <v>1.073467172417559</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052615435366529</v>
+        <v>1.054007799083725</v>
       </c>
       <c r="J12">
-        <v>1.037552351589204</v>
+        <v>1.065211121181613</v>
       </c>
       <c r="K12">
-        <v>1.040161689960877</v>
+        <v>1.061085837401707</v>
       </c>
       <c r="L12">
-        <v>1.036058453450297</v>
+        <v>1.067647346103435</v>
       </c>
       <c r="M12">
-        <v>1.0415087587136</v>
+        <v>1.076943902803432</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008467623155179</v>
+        <v>1.05879188067544</v>
       </c>
       <c r="D13">
-        <v>1.025796795223489</v>
+        <v>1.057603409912321</v>
       </c>
       <c r="E13">
-        <v>1.02165725259968</v>
+        <v>1.064197216784531</v>
       </c>
       <c r="F13">
-        <v>1.027234002966479</v>
+        <v>1.073532036698312</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052782123724154</v>
+        <v>1.054031864048638</v>
       </c>
       <c r="J13">
-        <v>1.037826564365089</v>
+        <v>1.065258708108627</v>
       </c>
       <c r="K13">
-        <v>1.040403480404199</v>
+        <v>1.061126740270619</v>
       </c>
       <c r="L13">
-        <v>1.036338290265953</v>
+        <v>1.067697107565046</v>
       </c>
       <c r="M13">
-        <v>1.041815055611929</v>
+        <v>1.076999286379454</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009712115932099</v>
+        <v>1.059007365090339</v>
       </c>
       <c r="D14">
-        <v>1.026741550946996</v>
+        <v>1.057768856834888</v>
       </c>
       <c r="E14">
-        <v>1.022729561344968</v>
+        <v>1.064391573668884</v>
       </c>
       <c r="F14">
-        <v>1.028392903690664</v>
+        <v>1.073744568013187</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053325854920944</v>
+        <v>1.054110666010182</v>
       </c>
       <c r="J14">
-        <v>1.038721452791661</v>
+        <v>1.065414597996647</v>
       </c>
       <c r="K14">
-        <v>1.041192518719599</v>
+        <v>1.061260725544839</v>
       </c>
       <c r="L14">
-        <v>1.037251618851502</v>
+        <v>1.067860127994866</v>
       </c>
       <c r="M14">
-        <v>1.042814819433734</v>
+        <v>1.077180735466391</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010475195961185</v>
+        <v>1.059140119969148</v>
       </c>
       <c r="D15">
-        <v>1.0273209707598</v>
+        <v>1.057870781826544</v>
       </c>
       <c r="E15">
-        <v>1.023387249652656</v>
+        <v>1.064511317259957</v>
       </c>
       <c r="F15">
-        <v>1.029103725901229</v>
+        <v>1.07387551460549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053659018306015</v>
+        <v>1.054159181258382</v>
       </c>
       <c r="J15">
-        <v>1.039270101981721</v>
+        <v>1.06551062228277</v>
       </c>
       <c r="K15">
-        <v>1.041676240770176</v>
+        <v>1.061343250759682</v>
       </c>
       <c r="L15">
-        <v>1.03781163924634</v>
+        <v>1.06796054986628</v>
       </c>
       <c r="M15">
-        <v>1.043427896313811</v>
+        <v>1.077292517494769</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.01486181355164</v>
+        <v>1.059912626974161</v>
       </c>
       <c r="D16">
-        <v>1.030653653967626</v>
+        <v>1.058463842402174</v>
       </c>
       <c r="E16">
-        <v>1.027170744125969</v>
+        <v>1.065208185100226</v>
       </c>
       <c r="F16">
-        <v>1.033193256023492</v>
+        <v>1.074637667344712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055570641298555</v>
+        <v>1.054440993175614</v>
       </c>
       <c r="J16">
-        <v>1.042423001212621</v>
+        <v>1.066069150666267</v>
       </c>
       <c r="K16">
-        <v>1.044455538745369</v>
+        <v>1.061823163935976</v>
       </c>
       <c r="L16">
-        <v>1.041030870292975</v>
+        <v>1.0685447385724</v>
       </c>
       <c r="M16">
-        <v>1.046952992069216</v>
+        <v>1.0779429136617</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01756674348799</v>
+        <v>1.060397040772177</v>
       </c>
       <c r="D17">
-        <v>1.032710219907514</v>
+        <v>1.058835690246593</v>
       </c>
       <c r="E17">
-        <v>1.029506077830906</v>
+        <v>1.065645232855507</v>
       </c>
       <c r="F17">
-        <v>1.03571782677402</v>
+        <v>1.075115736014019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056746208633626</v>
+        <v>1.054617267167105</v>
       </c>
       <c r="J17">
-        <v>1.044366202325522</v>
+        <v>1.066419172520121</v>
       </c>
       <c r="K17">
-        <v>1.046168038934378</v>
+        <v>1.062123832829888</v>
       </c>
       <c r="L17">
-        <v>1.043015808478617</v>
+        <v>1.068910913248004</v>
       </c>
       <c r="M17">
-        <v>1.04912729308897</v>
+        <v>1.078350694789242</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019128276319963</v>
+        <v>1.060679534639768</v>
       </c>
       <c r="D18">
-        <v>1.033897970603176</v>
+        <v>1.059052524414766</v>
       </c>
       <c r="E18">
-        <v>1.030855045144325</v>
+        <v>1.065900127590293</v>
       </c>
       <c r="F18">
-        <v>1.037176230751146</v>
+        <v>1.075394582652771</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057423680924348</v>
+        <v>1.054719905266353</v>
       </c>
       <c r="J18">
-        <v>1.045487620912455</v>
+        <v>1.066623216668644</v>
       </c>
       <c r="K18">
-        <v>1.047156155375443</v>
+        <v>1.062299075808165</v>
       </c>
       <c r="L18">
-        <v>1.044161618055847</v>
+        <v>1.06912439952358</v>
       </c>
       <c r="M18">
-        <v>1.050382691660737</v>
+        <v>1.078588476939238</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019658025685265</v>
+        <v>1.060775848253015</v>
       </c>
       <c r="D19">
-        <v>1.034300998203091</v>
+        <v>1.059126449404728</v>
       </c>
       <c r="E19">
-        <v>1.031312814423405</v>
+        <v>1.065987035448774</v>
       </c>
       <c r="F19">
-        <v>1.037671159140005</v>
+        <v>1.075489661756233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057653312294514</v>
+        <v>1.054754871786513</v>
       </c>
       <c r="J19">
-        <v>1.045867996054571</v>
+        <v>1.066692770547775</v>
       </c>
       <c r="K19">
-        <v>1.047491287100766</v>
+        <v>1.062358806775725</v>
       </c>
       <c r="L19">
-        <v>1.044550317783905</v>
+        <v>1.069197176394003</v>
       </c>
       <c r="M19">
-        <v>1.050808615379729</v>
+        <v>1.078669542750175</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017278219931515</v>
+        <v>1.060345073623348</v>
       </c>
       <c r="D20">
-        <v>1.032490800569354</v>
+        <v>1.05879580054339</v>
       </c>
       <c r="E20">
-        <v>1.029256893865616</v>
+        <v>1.065598344661536</v>
       </c>
       <c r="F20">
-        <v>1.03544843783151</v>
+        <v>1.075064444069987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05662093710028</v>
+        <v>1.054598373215116</v>
       </c>
       <c r="J20">
-        <v>1.044158967608159</v>
+        <v>1.066381630674465</v>
       </c>
       <c r="K20">
-        <v>1.045985424563059</v>
+        <v>1.062091587579084</v>
       </c>
       <c r="L20">
-        <v>1.042804090964081</v>
+        <v>1.068871636241179</v>
       </c>
       <c r="M20">
-        <v>1.04889534882508</v>
+        <v>1.078306950957051</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009346416977844</v>
+        <v>1.058943912843901</v>
       </c>
       <c r="D21">
-        <v>1.026463903872343</v>
+        <v>1.057720139408692</v>
       </c>
       <c r="E21">
-        <v>1.022414420371536</v>
+        <v>1.064334341685086</v>
       </c>
       <c r="F21">
-        <v>1.028052309269466</v>
+        <v>1.073681983043345</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053166126136903</v>
+        <v>1.0540874685568</v>
       </c>
       <c r="J21">
-        <v>1.038458499952452</v>
+        <v>1.06536869744223</v>
       </c>
       <c r="K21">
-        <v>1.040960675229653</v>
+        <v>1.061221275960037</v>
       </c>
       <c r="L21">
-        <v>1.036983233841203</v>
+        <v>1.067812126793813</v>
       </c>
       <c r="M21">
-        <v>1.042521023110067</v>
+        <v>1.077127306307756</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004199706658278</v>
+        <v>1.058062417993863</v>
       </c>
       <c r="D22">
-        <v>1.022558820326158</v>
+        <v>1.057043291978456</v>
       </c>
       <c r="E22">
-        <v>1.017982690665948</v>
+        <v>1.063539348153076</v>
       </c>
       <c r="F22">
-        <v>1.023263052179462</v>
+        <v>1.072812734631215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050913976706468</v>
+        <v>1.053764617388112</v>
       </c>
       <c r="J22">
-        <v>1.03475667058477</v>
+        <v>1.064730752749945</v>
       </c>
       <c r="K22">
-        <v>1.037696248793943</v>
+        <v>1.06067287554977</v>
       </c>
       <c r="L22">
-        <v>1.033206130588738</v>
+        <v>1.067145082171477</v>
       </c>
       <c r="M22">
-        <v>1.038387333264451</v>
+        <v>1.076384974873138</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006943914036459</v>
+        <v>1.058529766268749</v>
       </c>
       <c r="D23">
-        <v>1.024640429844299</v>
+        <v>1.057402152982424</v>
       </c>
       <c r="E23">
-        <v>1.020344870878785</v>
+        <v>1.063960815035654</v>
       </c>
       <c r="F23">
-        <v>1.025815705757501</v>
+        <v>1.073273544243703</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052115770503324</v>
+        <v>1.053935921317681</v>
       </c>
       <c r="J23">
-        <v>1.036730725217908</v>
+        <v>1.065069041685889</v>
       </c>
       <c r="K23">
-        <v>1.039437177007588</v>
+        <v>1.060963707347039</v>
       </c>
       <c r="L23">
-        <v>1.035220049354295</v>
+        <v>1.067498780050008</v>
       </c>
       <c r="M23">
-        <v>1.040591142745469</v>
+        <v>1.076778560360275</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017408641247767</v>
+        <v>1.060368555515566</v>
       </c>
       <c r="D24">
-        <v>1.0325899831197</v>
+        <v>1.058813825163714</v>
       </c>
       <c r="E24">
-        <v>1.029369530031743</v>
+        <v>1.06561953150414</v>
       </c>
       <c r="F24">
-        <v>1.035570206658657</v>
+        <v>1.075087620700129</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056677567241711</v>
+        <v>1.05460691113349</v>
       </c>
       <c r="J24">
-        <v>1.044252645095336</v>
+        <v>1.066398594582165</v>
       </c>
       <c r="K24">
-        <v>1.046067973288784</v>
+        <v>1.062106158228138</v>
       </c>
       <c r="L24">
-        <v>1.042899793890815</v>
+        <v>1.068889384130315</v>
       </c>
       <c r="M24">
-        <v>1.049000194007917</v>
+        <v>1.078326717127224</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028921965635356</v>
+        <v>1.062500161785686</v>
       </c>
       <c r="D25">
-        <v>1.041355434305446</v>
+        <v>1.060449706932376</v>
       </c>
       <c r="E25">
-        <v>1.039328840985374</v>
+        <v>1.067543295058515</v>
       </c>
       <c r="F25">
-        <v>1.04633986790264</v>
+        <v>1.077192656323183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061651321330037</v>
+        <v>1.055378518403893</v>
       </c>
       <c r="J25">
-        <v>1.052513709742253</v>
+        <v>1.067936857101575</v>
       </c>
       <c r="K25">
-        <v>1.053343973097364</v>
+        <v>1.063426732263352</v>
       </c>
       <c r="L25">
-        <v>1.051345832456557</v>
+        <v>1.070499295699918</v>
       </c>
       <c r="M25">
-        <v>1.058259018276612</v>
+        <v>1.08012054051313</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_157/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_157/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064198653302102</v>
+        <v>1.037658900038677</v>
       </c>
       <c r="D2">
-        <v>1.06175269416624</v>
+        <v>1.04801892443902</v>
       </c>
       <c r="E2">
-        <v>1.069076882600384</v>
+        <v>1.046907570061509</v>
       </c>
       <c r="F2">
-        <v>1.078871629810596</v>
+        <v>1.054539685581465</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055988313694664</v>
+        <v>1.06538758058678</v>
       </c>
       <c r="J2">
-        <v>1.069160123005274</v>
+        <v>1.058768759433245</v>
       </c>
       <c r="K2">
-        <v>1.064475900687661</v>
+        <v>1.05884748501046</v>
       </c>
       <c r="L2">
-        <v>1.071780355622972</v>
+        <v>1.05774991420182</v>
       </c>
       <c r="M2">
-        <v>1.081549165381923</v>
+        <v>1.065288100090981</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065430994089894</v>
+        <v>1.043770907599695</v>
       </c>
       <c r="D3">
-        <v>1.062697770233633</v>
+        <v>1.052685649086781</v>
       </c>
       <c r="E3">
-        <v>1.070189976582276</v>
+        <v>1.052220140955341</v>
       </c>
       <c r="F3">
-        <v>1.080090757819483</v>
+        <v>1.06029042203458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05642783024316</v>
+        <v>1.067978373265716</v>
       </c>
       <c r="J3">
-        <v>1.070046242116565</v>
+        <v>1.063135508762618</v>
       </c>
       <c r="K3">
-        <v>1.065235330747638</v>
+        <v>1.062686027414451</v>
       </c>
       <c r="L3">
-        <v>1.072708813494198</v>
+        <v>1.062225765857685</v>
       </c>
       <c r="M3">
-        <v>1.082585280450773</v>
+        <v>1.070205891948582</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066227995820213</v>
+        <v>1.047626458581196</v>
       </c>
       <c r="D4">
-        <v>1.063308840469844</v>
+        <v>1.055631426941658</v>
       </c>
       <c r="E4">
-        <v>1.07091003792658</v>
+        <v>1.05557598253468</v>
       </c>
       <c r="F4">
-        <v>1.080879649755082</v>
+        <v>1.063924405324726</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056710730055846</v>
+        <v>1.069601783870036</v>
       </c>
       <c r="J4">
-        <v>1.070618669374011</v>
+        <v>1.065885640927506</v>
       </c>
       <c r="K4">
-        <v>1.065725650571288</v>
+        <v>1.065101776167553</v>
       </c>
       <c r="L4">
-        <v>1.073308810367187</v>
+        <v>1.065046917381823</v>
       </c>
       <c r="M4">
-        <v>1.083255176655955</v>
+        <v>1.073308000594452</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066562960649962</v>
+        <v>1.049224640165423</v>
       </c>
       <c r="D5">
-        <v>1.063565626036134</v>
+        <v>1.05685289186176</v>
       </c>
       <c r="E5">
-        <v>1.071212708961711</v>
+        <v>1.056968072146976</v>
       </c>
       <c r="F5">
-        <v>1.081211309921249</v>
+        <v>1.065432211960321</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056829303615877</v>
+        <v>1.070272053093512</v>
       </c>
       <c r="J5">
-        <v>1.070859091538858</v>
+        <v>1.067024491750057</v>
       </c>
       <c r="K5">
-        <v>1.065931523095783</v>
+        <v>1.066101730283453</v>
       </c>
       <c r="L5">
-        <v>1.073560864351585</v>
+        <v>1.066215727668884</v>
       </c>
       <c r="M5">
-        <v>1.083536673403854</v>
+        <v>1.074593792750915</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06661919723251</v>
+        <v>1.049491681480567</v>
       </c>
       <c r="D6">
-        <v>1.063608735139855</v>
+        <v>1.057057008811418</v>
       </c>
       <c r="E6">
-        <v>1.071263526297081</v>
+        <v>1.057200737269784</v>
       </c>
       <c r="F6">
-        <v>1.081266997758558</v>
+        <v>1.065684237377893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056849191696732</v>
+        <v>1.070383891381667</v>
       </c>
       <c r="J6">
-        <v>1.070899446252187</v>
+        <v>1.067214716156783</v>
       </c>
       <c r="K6">
-        <v>1.065966074906923</v>
+        <v>1.066268729110343</v>
       </c>
       <c r="L6">
-        <v>1.073603174535057</v>
+        <v>1.06641098848959</v>
       </c>
       <c r="M6">
-        <v>1.083583930507926</v>
+        <v>1.074808630782277</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066232472005883</v>
+        <v>1.047647901341027</v>
       </c>
       <c r="D7">
-        <v>1.063312272075578</v>
+        <v>1.055647813817983</v>
       </c>
       <c r="E7">
-        <v>1.070914082397872</v>
+        <v>1.055594656104262</v>
       </c>
       <c r="F7">
-        <v>1.080884081373031</v>
+        <v>1.06394462978529</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056712315845361</v>
+        <v>1.069610787418924</v>
       </c>
       <c r="J7">
-        <v>1.070621882793983</v>
+        <v>1.065900925337962</v>
       </c>
       <c r="K7">
-        <v>1.065728402462086</v>
+        <v>1.065115198159313</v>
       </c>
       <c r="L7">
-        <v>1.073312179048835</v>
+        <v>1.065062601705308</v>
       </c>
       <c r="M7">
-        <v>1.083258938528793</v>
+        <v>1.073325252400732</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064615213917316</v>
+        <v>1.039745725704397</v>
       </c>
       <c r="D8">
-        <v>1.062072182364862</v>
+        <v>1.049611837549156</v>
       </c>
       <c r="E8">
-        <v>1.069453097115555</v>
+        <v>1.048720443034023</v>
       </c>
       <c r="F8">
-        <v>1.079283633699152</v>
+        <v>1.056501799156289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056137160777981</v>
+        <v>1.066274423639649</v>
       </c>
       <c r="J8">
-        <v>1.069459788893502</v>
+        <v>1.060260616641855</v>
       </c>
       <c r="K8">
-        <v>1.064732778404907</v>
+        <v>1.060159241043304</v>
       </c>
       <c r="L8">
-        <v>1.072094294141567</v>
+        <v>1.059278556459986</v>
       </c>
       <c r="M8">
-        <v>1.081899437965073</v>
+        <v>1.066967176330643</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06176219230467</v>
+        <v>1.025007455103813</v>
       </c>
       <c r="D9">
-        <v>1.059883435266897</v>
+        <v>1.038373089218924</v>
       </c>
       <c r="E9">
-        <v>1.066877170374092</v>
+        <v>1.035939144294422</v>
       </c>
       <c r="F9">
-        <v>1.076463628233203</v>
+        <v>1.042673694017271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055112163930702</v>
+        <v>1.059966169677675</v>
       </c>
       <c r="J9">
-        <v>1.067404682556591</v>
+        <v>1.049707022507359</v>
       </c>
       <c r="K9">
-        <v>1.062970021233544</v>
+        <v>1.050872824128076</v>
       </c>
       <c r="L9">
-        <v>1.069942206946032</v>
+        <v>1.048474854217124</v>
       </c>
       <c r="M9">
-        <v>1.079499622537262</v>
+        <v>1.055110384544909</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059857875839257</v>
+        <v>1.01455389380813</v>
       </c>
       <c r="D10">
-        <v>1.058421812081614</v>
+        <v>1.030419614393364</v>
       </c>
       <c r="E10">
-        <v>1.065158790685911</v>
+        <v>1.026905009402843</v>
       </c>
       <c r="F10">
-        <v>1.074583640562618</v>
+        <v>1.032906005229404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054421048199816</v>
+        <v>1.055436660097857</v>
       </c>
       <c r="J10">
-        <v>1.066029578861577</v>
+        <v>1.042201744439</v>
       </c>
       <c r="K10">
-        <v>1.061789167547</v>
+        <v>1.044260527913741</v>
       </c>
       <c r="L10">
-        <v>1.068503344111924</v>
+        <v>1.040804903111718</v>
       </c>
       <c r="M10">
-        <v>1.077896820993715</v>
+        <v>1.046705505640424</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059032706522832</v>
+        <v>1.009857991866568</v>
       </c>
       <c r="D11">
-        <v>1.057788313359613</v>
+        <v>1.026852309558255</v>
       </c>
       <c r="E11">
-        <v>1.064414431103092</v>
+        <v>1.022855278930813</v>
       </c>
       <c r="F11">
-        <v>1.073769563612398</v>
+        <v>1.028528776448356</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054119928966758</v>
+        <v>1.053389558721975</v>
       </c>
       <c r="J11">
-        <v>1.065432928899488</v>
+        <v>1.038826340485894</v>
       </c>
       <c r="K11">
-        <v>1.061276479869947</v>
+        <v>1.041284995864551</v>
       </c>
       <c r="L11">
-        <v>1.067879298075046</v>
+        <v>1.037358676554265</v>
       </c>
       <c r="M11">
-        <v>1.077202073679487</v>
+        <v>1.042932016411417</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058726110640814</v>
+        <v>1.008086319925202</v>
       </c>
       <c r="D12">
-        <v>1.057552911116604</v>
+        <v>1.025507381473338</v>
       </c>
       <c r="E12">
-        <v>1.064137897236372</v>
+        <v>1.021328780451937</v>
       </c>
       <c r="F12">
-        <v>1.073467172417559</v>
+        <v>1.026879015131653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054007799083725</v>
+        <v>1.052615435366529</v>
       </c>
       <c r="J12">
-        <v>1.065211121181613</v>
+        <v>1.037552351589205</v>
       </c>
       <c r="K12">
-        <v>1.061085837401707</v>
+        <v>1.040161689960877</v>
       </c>
       <c r="L12">
-        <v>1.067647346103435</v>
+        <v>1.036058453450298</v>
       </c>
       <c r="M12">
-        <v>1.076943902803432</v>
+        <v>1.0415087587136</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05879188067544</v>
+        <v>1.008467623155179</v>
       </c>
       <c r="D13">
-        <v>1.057603409912321</v>
+        <v>1.025796795223489</v>
       </c>
       <c r="E13">
-        <v>1.064197216784531</v>
+        <v>1.02165725259968</v>
       </c>
       <c r="F13">
-        <v>1.073532036698312</v>
+        <v>1.027234002966479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054031864048638</v>
+        <v>1.052782123724154</v>
       </c>
       <c r="J13">
-        <v>1.065258708108627</v>
+        <v>1.037826564365089</v>
       </c>
       <c r="K13">
-        <v>1.061126740270619</v>
+        <v>1.040403480404199</v>
       </c>
       <c r="L13">
-        <v>1.067697107565046</v>
+        <v>1.036338290265952</v>
       </c>
       <c r="M13">
-        <v>1.076999286379454</v>
+        <v>1.041815055611929</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059007365090339</v>
+        <v>1.009712115932096</v>
       </c>
       <c r="D14">
-        <v>1.057768856834888</v>
+        <v>1.026741550946994</v>
       </c>
       <c r="E14">
-        <v>1.064391573668884</v>
+        <v>1.022729561344966</v>
       </c>
       <c r="F14">
-        <v>1.073744568013187</v>
+        <v>1.028392903690662</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054110666010182</v>
+        <v>1.053325854920942</v>
       </c>
       <c r="J14">
-        <v>1.065414597996647</v>
+        <v>1.038721452791658</v>
       </c>
       <c r="K14">
-        <v>1.061260725544839</v>
+        <v>1.041192518719597</v>
       </c>
       <c r="L14">
-        <v>1.067860127994866</v>
+        <v>1.0372516188515</v>
       </c>
       <c r="M14">
-        <v>1.077180735466391</v>
+        <v>1.042814819433731</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059140119969148</v>
+        <v>1.010475195961185</v>
       </c>
       <c r="D15">
-        <v>1.057870781826544</v>
+        <v>1.027320970759801</v>
       </c>
       <c r="E15">
-        <v>1.064511317259957</v>
+        <v>1.023387249652657</v>
       </c>
       <c r="F15">
-        <v>1.07387551460549</v>
+        <v>1.029103725901229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054159181258382</v>
+        <v>1.053659018306015</v>
       </c>
       <c r="J15">
-        <v>1.06551062228277</v>
+        <v>1.039270101981721</v>
       </c>
       <c r="K15">
-        <v>1.061343250759682</v>
+        <v>1.041676240770177</v>
       </c>
       <c r="L15">
-        <v>1.06796054986628</v>
+        <v>1.03781163924634</v>
       </c>
       <c r="M15">
-        <v>1.077292517494769</v>
+        <v>1.043427896313811</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059912626974161</v>
+        <v>1.01486181355164</v>
       </c>
       <c r="D16">
-        <v>1.058463842402174</v>
+        <v>1.030653653967626</v>
       </c>
       <c r="E16">
-        <v>1.065208185100226</v>
+        <v>1.027170744125969</v>
       </c>
       <c r="F16">
-        <v>1.074637667344712</v>
+        <v>1.033193256023492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054440993175614</v>
+        <v>1.055570641298554</v>
       </c>
       <c r="J16">
-        <v>1.066069150666267</v>
+        <v>1.04242300121262</v>
       </c>
       <c r="K16">
-        <v>1.061823163935976</v>
+        <v>1.044455538745368</v>
       </c>
       <c r="L16">
-        <v>1.0685447385724</v>
+        <v>1.041030870292975</v>
       </c>
       <c r="M16">
-        <v>1.0779429136617</v>
+        <v>1.046952992069216</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060397040772177</v>
+        <v>1.017566743487991</v>
       </c>
       <c r="D17">
-        <v>1.058835690246593</v>
+        <v>1.032710219907514</v>
       </c>
       <c r="E17">
-        <v>1.065645232855507</v>
+        <v>1.029506077830906</v>
       </c>
       <c r="F17">
-        <v>1.075115736014019</v>
+        <v>1.035717826774021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054617267167105</v>
+        <v>1.056746208633626</v>
       </c>
       <c r="J17">
-        <v>1.066419172520121</v>
+        <v>1.044366202325523</v>
       </c>
       <c r="K17">
-        <v>1.062123832829888</v>
+        <v>1.046168038934378</v>
       </c>
       <c r="L17">
-        <v>1.068910913248004</v>
+        <v>1.043015808478618</v>
       </c>
       <c r="M17">
-        <v>1.078350694789242</v>
+        <v>1.049127293088971</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060679534639768</v>
+        <v>1.019128276319962</v>
       </c>
       <c r="D18">
-        <v>1.059052524414766</v>
+        <v>1.033897970603175</v>
       </c>
       <c r="E18">
-        <v>1.065900127590293</v>
+        <v>1.030855045144323</v>
       </c>
       <c r="F18">
-        <v>1.075394582652771</v>
+        <v>1.037176230751145</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054719905266353</v>
+        <v>1.057423680924347</v>
       </c>
       <c r="J18">
-        <v>1.066623216668644</v>
+        <v>1.045487620912454</v>
       </c>
       <c r="K18">
-        <v>1.062299075808165</v>
+        <v>1.047156155375442</v>
       </c>
       <c r="L18">
-        <v>1.06912439952358</v>
+        <v>1.044161618055846</v>
       </c>
       <c r="M18">
-        <v>1.078588476939238</v>
+        <v>1.050382691660736</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060775848253015</v>
+        <v>1.019658025685266</v>
       </c>
       <c r="D19">
-        <v>1.059126449404728</v>
+        <v>1.034300998203092</v>
       </c>
       <c r="E19">
-        <v>1.065987035448774</v>
+        <v>1.031312814423406</v>
       </c>
       <c r="F19">
-        <v>1.075489661756233</v>
+        <v>1.037671159140005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054754871786513</v>
+        <v>1.057653312294514</v>
       </c>
       <c r="J19">
-        <v>1.066692770547775</v>
+        <v>1.045867996054572</v>
       </c>
       <c r="K19">
-        <v>1.062358806775725</v>
+        <v>1.047491287100766</v>
       </c>
       <c r="L19">
-        <v>1.069197176394003</v>
+        <v>1.044550317783906</v>
       </c>
       <c r="M19">
-        <v>1.078669542750175</v>
+        <v>1.05080861537973</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060345073623348</v>
+        <v>1.017278219931516</v>
       </c>
       <c r="D20">
-        <v>1.05879580054339</v>
+        <v>1.032490800569355</v>
       </c>
       <c r="E20">
-        <v>1.065598344661536</v>
+        <v>1.029256893865616</v>
       </c>
       <c r="F20">
-        <v>1.075064444069987</v>
+        <v>1.035448437831511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054598373215116</v>
+        <v>1.05662093710028</v>
       </c>
       <c r="J20">
-        <v>1.066381630674465</v>
+        <v>1.04415896760816</v>
       </c>
       <c r="K20">
-        <v>1.062091587579084</v>
+        <v>1.045985424563059</v>
       </c>
       <c r="L20">
-        <v>1.068871636241179</v>
+        <v>1.042804090964081</v>
       </c>
       <c r="M20">
-        <v>1.078306950957051</v>
+        <v>1.04889534882508</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058943912843901</v>
+        <v>1.009346416977844</v>
       </c>
       <c r="D21">
-        <v>1.057720139408692</v>
+        <v>1.026463903872342</v>
       </c>
       <c r="E21">
-        <v>1.064334341685086</v>
+        <v>1.022414420371536</v>
       </c>
       <c r="F21">
-        <v>1.073681983043345</v>
+        <v>1.028052309269466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0540874685568</v>
+        <v>1.053166126136903</v>
       </c>
       <c r="J21">
-        <v>1.06536869744223</v>
+        <v>1.038458499952452</v>
       </c>
       <c r="K21">
-        <v>1.061221275960037</v>
+        <v>1.040960675229653</v>
       </c>
       <c r="L21">
-        <v>1.067812126793813</v>
+        <v>1.036983233841202</v>
       </c>
       <c r="M21">
-        <v>1.077127306307756</v>
+        <v>1.042521023110066</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058062417993863</v>
+        <v>1.004199706658278</v>
       </c>
       <c r="D22">
-        <v>1.057043291978456</v>
+        <v>1.022558820326158</v>
       </c>
       <c r="E22">
-        <v>1.063539348153076</v>
+        <v>1.017982690665949</v>
       </c>
       <c r="F22">
-        <v>1.072812734631215</v>
+        <v>1.023263052179462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053764617388112</v>
+        <v>1.050913976706468</v>
       </c>
       <c r="J22">
-        <v>1.064730752749945</v>
+        <v>1.03475667058477</v>
       </c>
       <c r="K22">
-        <v>1.06067287554977</v>
+        <v>1.037696248793944</v>
       </c>
       <c r="L22">
-        <v>1.067145082171477</v>
+        <v>1.033206130588738</v>
       </c>
       <c r="M22">
-        <v>1.076384974873138</v>
+        <v>1.038387333264451</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058529766268749</v>
+        <v>1.006943914036458</v>
       </c>
       <c r="D23">
-        <v>1.057402152982424</v>
+        <v>1.024640429844299</v>
       </c>
       <c r="E23">
-        <v>1.063960815035654</v>
+        <v>1.020344870878785</v>
       </c>
       <c r="F23">
-        <v>1.073273544243703</v>
+        <v>1.0258157057575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053935921317681</v>
+        <v>1.052115770503324</v>
       </c>
       <c r="J23">
-        <v>1.065069041685889</v>
+        <v>1.036730725217908</v>
       </c>
       <c r="K23">
-        <v>1.060963707347039</v>
+        <v>1.039437177007588</v>
       </c>
       <c r="L23">
-        <v>1.067498780050008</v>
+        <v>1.035220049354295</v>
       </c>
       <c r="M23">
-        <v>1.076778560360275</v>
+        <v>1.040591142745469</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060368555515566</v>
+        <v>1.017408641247766</v>
       </c>
       <c r="D24">
-        <v>1.058813825163714</v>
+        <v>1.032589983119699</v>
       </c>
       <c r="E24">
-        <v>1.06561953150414</v>
+        <v>1.029369530031742</v>
       </c>
       <c r="F24">
-        <v>1.075087620700129</v>
+        <v>1.035570206658657</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05460691113349</v>
+        <v>1.056677567241711</v>
       </c>
       <c r="J24">
-        <v>1.066398594582165</v>
+        <v>1.044252645095335</v>
       </c>
       <c r="K24">
-        <v>1.062106158228138</v>
+        <v>1.046067973288783</v>
       </c>
       <c r="L24">
-        <v>1.068889384130315</v>
+        <v>1.042899793890814</v>
       </c>
       <c r="M24">
-        <v>1.078326717127224</v>
+        <v>1.049000194007916</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.062500161785686</v>
+        <v>1.028921965635354</v>
       </c>
       <c r="D25">
-        <v>1.060449706932376</v>
+        <v>1.041355434305445</v>
       </c>
       <c r="E25">
-        <v>1.067543295058515</v>
+        <v>1.039328840985372</v>
       </c>
       <c r="F25">
-        <v>1.077192656323183</v>
+        <v>1.046339867902638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055378518403893</v>
+        <v>1.061651321330036</v>
       </c>
       <c r="J25">
-        <v>1.067936857101575</v>
+        <v>1.052513709742251</v>
       </c>
       <c r="K25">
-        <v>1.063426732263352</v>
+        <v>1.053343973097362</v>
       </c>
       <c r="L25">
-        <v>1.070499295699918</v>
+        <v>1.051345832456555</v>
       </c>
       <c r="M25">
-        <v>1.08012054051313</v>
+        <v>1.05825901827661</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
